--- a/data/trans_camb/P32A-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8058937217952674</v>
+        <v>0.5871983047288299</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9482898166615733</v>
+        <v>-0.7622673448339233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.235622621333573</v>
+        <v>-2.440640280692262</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5482332615527353</v>
+        <v>0.5462745111667499</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.015137688168406</v>
+        <v>1.900880899862114</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6298618988804543</v>
+        <v>0.7913206513601634</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.08998138395755503</v>
+        <v>-0.0130902521326037</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3362180917604458</v>
+        <v>0.3867362353373573</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.249979142531963</v>
+        <v>5.065603339683413</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.37235137652064</v>
+        <v>3.051056356182949</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.883376208895204</v>
+        <v>3.826219590089771</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.313175804374803</v>
+        <v>4.822960738012409</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.08530548616766</v>
+        <v>17.21363055639562</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.798533517358357</v>
+        <v>3.892644781442734</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.68413484396695</v>
+        <v>2.997227656916615</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.410753880141097</v>
+        <v>7.103828262765637</v>
       </c>
     </row>
     <row r="7">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06197702434141317</v>
+        <v>-0.3548446102403903</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
@@ -794,11 +794,9 @@
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.001492918823840539</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>-0.7902664118273472</v>
-      </c>
+        <v>0.1841533204864094</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -865,31 +863,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3750416334142258</v>
+        <v>0.3588384043747795</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1740540917427414</v>
+        <v>0.09867905241003258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.490095867604399</v>
+        <v>-1.587247312858296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.447232159445157</v>
+        <v>-1.497951959284601</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9782126150343353</v>
+        <v>-0.9936558796770838</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7698646050185272</v>
+        <v>-0.479356309671208</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03243172210948695</v>
+        <v>0.0381938581142147</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07512016966516315</v>
+        <v>0.1159549565291356</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.9230633019310444</v>
+        <v>-1.032827412291552</v>
       </c>
     </row>
     <row r="12">
@@ -900,31 +898,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.831148462379525</v>
+        <v>3.697964236392944</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.15339692577831</v>
+        <v>4.145574217017814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.194257307735148</v>
+        <v>1.149649917474747</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8507268423080065</v>
+        <v>0.8565666281038511</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.098922907339376</v>
+        <v>1.769979228500513</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.090898778729811</v>
+        <v>3.551280292226252</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.60831764262487</v>
+        <v>2.664369427294665</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.893842636906723</v>
+        <v>2.714059102635057</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.321393759932818</v>
+        <v>1.184008929572593</v>
       </c>
     </row>
     <row r="13">
@@ -970,23 +968,23 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06274377700922618</v>
+        <v>0.01113970350249789</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2020053473518417</v>
+        <v>-0.1958894783798219</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.1168704966714379</v>
+        <v>-0.08203342513245879</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05330743348794928</v>
+        <v>-0.08199617374684795</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8901191763397815</v>
       </c>
     </row>
     <row r="15">
@@ -997,23 +995,23 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13.79271828651012</v>
+        <v>8.85737036125523</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9.945108582001465</v>
+        <v>8.609203930589217</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>6.66207229411572</v>
+        <v>6.696624840194207</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8.510530569018259</v>
+        <v>6.390297028645061</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4.629261336112445</v>
+        <v>5.038101004400201</v>
       </c>
     </row>
     <row r="16">
@@ -1034,7 +1032,7 @@
         <v>0.8990061823891514</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.08160511829380171</v>
+        <v>-0.08160511829380154</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.4797707322527227</v>
@@ -1043,7 +1041,7 @@
         <v>-0.09500600254096153</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3684734426266744</v>
+        <v>0.3684734426266739</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.9813811773599274</v>
@@ -1063,31 +1061,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2743182821786634</v>
+        <v>0.0269324945771691</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7366218049344782</v>
+        <v>-0.6830436557673246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.520706867342074</v>
+        <v>-1.553596146204781</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.573641952473043</v>
+        <v>-2.271650743379547</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.8065393267975</v>
+        <v>-1.844712857981352</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.372254475783588</v>
+        <v>-1.411948048739627</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.3238693103577646</v>
+        <v>-0.3066816241496935</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.6541377949273866</v>
+        <v>-0.8184312829809005</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.074878845298622</v>
+        <v>-1.073490662270413</v>
       </c>
     </row>
     <row r="18">
@@ -1098,31 +1096,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.952303466778231</v>
+        <v>4.291707828852495</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.679540562731422</v>
+        <v>2.707931013773325</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.873262065108124</v>
+        <v>1.9209806232232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6630289463281861</v>
+        <v>0.7149286595068014</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.192829564460722</v>
+        <v>1.193937172830227</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.277012706916786</v>
+        <v>2.377056285932936</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.614715608512347</v>
+        <v>2.677110525455775</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.773764471300883</v>
+        <v>1.742725559814437</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.3947150975122</v>
+        <v>1.490259979480554</v>
       </c>
     </row>
     <row r="19">
@@ -1139,7 +1137,7 @@
         <v>0.7559304499123984</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.06861776369885443</v>
+        <v>-0.06861776369885428</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.5542463420018405</v>
@@ -1148,7 +1146,7 @@
         <v>-0.1097539425327183</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4256721887592808</v>
+        <v>0.4256721887592802</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.9143299522457476</v>
@@ -1168,10 +1166,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2641980928340542</v>
+        <v>-0.2138273424585198</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5219052082017206</v>
+        <v>-0.4549865583883578</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>-1</v>
@@ -1180,13 +1178,13 @@
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.2918760691595733</v>
+        <v>-0.314018356977859</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4769596744626695</v>
+        <v>-0.5465533174111921</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7192156975499111</v>
+        <v>-0.7224818789208858</v>
       </c>
     </row>
     <row r="21">
@@ -1197,25 +1195,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.64048573897136</v>
+        <v>7.844063133170386</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.089796025092999</v>
+        <v>5.541629788305871</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.778809857774155</v>
+        <v>5.292727314008262</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>5.195231540481769</v>
+        <v>4.744507885449402</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.37790374671909</v>
+        <v>3.239225372434163</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.677800127204374</v>
+        <v>3.087296727063296</v>
       </c>
     </row>
     <row r="22">
@@ -1236,7 +1234,7 @@
         <v>1.459275603368487</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.713022443711661</v>
+        <v>1.713022443711662</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.4816723501583239</v>
@@ -1265,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1096065496445445</v>
+        <v>-0.1439227389496117</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.119515812154127</v>
+        <v>-0.1061109111801115</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1156271855433945</v>
+        <v>-0.08297643747222234</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -1280,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3309532075322924</v>
+        <v>0.3289266947257904</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.0434486243283074</v>
+        <v>0.05242826476388844</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.02318683162827406</v>
+        <v>0.05405582706411386</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2348373824513006</v>
+        <v>0.1968463047469903</v>
       </c>
     </row>
     <row r="24">
@@ -1300,31 +1298,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.092310466212097</v>
+        <v>4.055701534415672</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.56983727582357</v>
+        <v>3.370976399712496</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.750300294469303</v>
+        <v>3.918329516623604</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.421879856163536</v>
+        <v>2.424473131941914</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.060993224748228</v>
+        <v>3.324326168088016</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.694333504352265</v>
+        <v>2.710607993065251</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.745498902014441</v>
+        <v>2.968174089428128</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.397730733060684</v>
+        <v>2.495422084216184</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.827576757743754</v>
+        <v>2.857354375125309</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1339,7 @@
         <v>2.219705503981258</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>2.605680063432156</v>
+        <v>2.605680063432158</v>
       </c>
       <c r="F25" s="6" t="inlineStr">
         <is>
@@ -1376,25 +1374,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6833532922679115</v>
+        <v>-0.5619192047818297</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.602809420823861</v>
+        <v>-0.7167078663138533</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5419314293826785</v>
+        <v>-0.5824665971755695</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.4842325710263404</v>
+        <v>-0.4714744607026261</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5025805450076545</v>
+        <v>-0.3335855677508281</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3978909382085302</v>
+        <v>-0.2166285074261699</v>
       </c>
     </row>
     <row r="27">
@@ -1432,7 +1430,7 @@
         <v>-1.026693481117024</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.4924379224431255</v>
+        <v>0.4924379224431241</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.649401016447432</v>
@@ -1450,7 +1448,7 @@
         <v>0.2354690739330079</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.9009523302369329</v>
+        <v>0.9009523302369333</v>
       </c>
     </row>
     <row r="29">
@@ -1461,31 +1459,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.447233661912145</v>
+        <v>-5.525301812305263</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.53839564361662</v>
+        <v>-4.728465369723273</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.013218067294783</v>
+        <v>-3.378695674536329</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8997626752705765</v>
+        <v>0.9004520777167785</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.8661290676105167</v>
+        <v>0.8819241371989627</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8155437139848598</v>
+        <v>0.8398094719730406</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.888471613384314</v>
+        <v>-2.998875937025643</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.713787128870865</v>
+        <v>-2.67109936653706</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.768057466486234</v>
+        <v>-1.761677565578688</v>
       </c>
     </row>
     <row r="30">
@@ -1496,31 +1494,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8878805003375024</v>
+        <v>1.382165091922322</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.573897783962069</v>
+        <v>1.762437689279348</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.348272881650129</v>
+        <v>3.364377804534072</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.90074071042631</v>
+        <v>10.13375383287909</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.689466208534043</v>
+        <v>9.833640436322375</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.808603955473756</v>
+        <v>4.583624222627911</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.430426925622084</v>
+        <v>2.286734390179746</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.561385500372343</v>
+        <v>2.463358922797666</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.973217113645306</v>
+        <v>2.964768299706506</v>
       </c>
     </row>
     <row r="31">
@@ -1537,7 +1535,7 @@
         <v>-0.3444379322169024</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1652044187199476</v>
+        <v>0.1652044187199471</v>
       </c>
       <c r="F31" s="6" t="inlineStr">
         <is>
@@ -1561,7 +1559,7 @@
         <v>0.1120851495487126</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4288604655556508</v>
+        <v>0.428860465555651</v>
       </c>
     </row>
     <row r="32">
@@ -1571,24 +1569,26 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr"/>
+      <c r="C32" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8653108843461341</v>
+        <v>-0.8823656439289607</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6215873049277619</v>
+        <v>-0.6370062352336453</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.8574845392248456</v>
+        <v>-0.8819156244912049</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7407225334614443</v>
+        <v>-0.7150850231915016</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5164530831173187</v>
+        <v>-0.5260118311810174</v>
       </c>
     </row>
     <row r="33">
@@ -1600,22 +1600,22 @@
       </c>
       <c r="C33" s="6" t="inlineStr"/>
       <c r="D33" s="6" t="n">
-        <v>1.929091036753868</v>
+        <v>2.075265849204398</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.100747951928384</v>
+        <v>3.130236756313329</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>4.316167554191418</v>
+        <v>3.631981113575194</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>3.664193823926241</v>
+        <v>3.161987253199924</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.708815397474352</v>
+        <v>3.536752567253397</v>
       </c>
     </row>
     <row r="34">
@@ -1636,7 +1636,7 @@
         <v>1.656952386139755</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.562079647157828</v>
+        <v>2.562079647157829</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>1.646114874840628</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2.317701426504536</v>
+        <v>2.317701426504535</v>
       </c>
     </row>
     <row r="35">
@@ -1665,29 +1665,29 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.6039014586277042</v>
+        <v>0.6069858826019686</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.506207394436738</v>
+        <v>0.5008082989068624</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.146872743577882</v>
+        <v>1.152380023012614</v>
       </c>
       <c r="F35" s="5" t="inlineStr"/>
       <c r="G35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.5453943188270634</v>
+        <v>0.5414610642455585</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.4453900293295249</v>
+        <v>0.4492192585931269</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.4349129391834827</v>
+        <v>0.3980830933441011</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.212782361942321</v>
+        <v>1.244877765159357</v>
       </c>
     </row>
     <row r="36">
@@ -1698,29 +1698,29 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.113850181582264</v>
+        <v>5.073680879490153</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.72207044405211</v>
+        <v>4.595576991369818</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.006409239809486</v>
+        <v>4.774168189439896</v>
       </c>
       <c r="F36" s="5" t="inlineStr"/>
       <c r="G36" s="5" t="n">
-        <v>7.186430486308614</v>
+        <v>8.699580863911693</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.822795458109018</v>
+        <v>4.762121009747498</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.826986113167115</v>
+        <v>3.772181242275177</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.727484692601261</v>
+        <v>3.953361440558583</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.080826380659198</v>
+        <v>4.055407412995228</v>
       </c>
     </row>
     <row r="37">
@@ -1824,7 +1824,7 @@
         <v>-1.376585255352029</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.8541090948583229</v>
+        <v>0.8541090948583232</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>-0.2184351759170302</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.40763655937531</v>
+        <v>1.407636559375311</v>
       </c>
     </row>
     <row r="41">
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.691665360853802</v>
+        <v>-2.758269138274869</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.044420799523101</v>
+        <v>-6.674301529725088</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.35105026393687</v>
+        <v>-3.915781244082008</v>
       </c>
       <c r="F41" s="5" t="inlineStr"/>
       <c r="G41" s="5" t="n">
@@ -1869,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.218272912817483</v>
+        <v>-2.219667633179493</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.63110558763357</v>
+        <v>-3.769451394147218</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.242061775372432</v>
+        <v>-2.098198677295056</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +1886,29 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.6858338605128</v>
+        <v>10.62116077306385</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.651502141647851</v>
+        <v>3.728945523437075</v>
       </c>
       <c r="F42" s="5" t="inlineStr"/>
       <c r="G42" s="5" t="n">
-        <v>16.50663183201443</v>
+        <v>15.7367931812482</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>14.66620122532964</v>
+        <v>12.93981030407621</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.30760109171363</v>
+        <v>8.17851337538797</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.802523178306561</v>
+        <v>1.83388251931611</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.003880202623439</v>
+        <v>4.193141201105697</v>
       </c>
     </row>
     <row r="43">
@@ -1925,7 +1925,7 @@
         <v>-1</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.620454920272922</v>
+        <v>0.6204549202729223</v>
       </c>
       <c r="F43" s="6" t="inlineStr"/>
       <c r="G43" s="6" t="inlineStr">
@@ -1945,7 +1945,7 @@
         <v>-0.1945325660504445</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.253603733062248</v>
+        <v>1.253603733062249</v>
       </c>
     </row>
     <row r="44">
@@ -2029,31 +2029,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.4969847840848588</v>
+        <v>0.6184634582791128</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.1818625859122961</v>
+        <v>0.1619709325519185</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.03517029387135181</v>
+        <v>0.01624438788596668</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.1268904291654863</v>
+        <v>-0.08939885647097585</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.312515171117039</v>
+        <v>0.2425565688743528</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.8303070640328288</v>
+        <v>0.8719679973120484</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.52838334863725</v>
+        <v>0.5190200502882534</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.3181557908466064</v>
+        <v>0.3316392542851195</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.5384612315711145</v>
+        <v>0.4999287764351781</v>
       </c>
     </row>
     <row r="48">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.307720337749625</v>
+        <v>2.35642338735492</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.728094516179165</v>
+        <v>1.805755679606402</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.562012265994049</v>
+        <v>1.492296971000398</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.365949403506894</v>
+        <v>1.301447816007209</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.93912322448331</v>
+        <v>1.819184489940714</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3.092794066363009</v>
+        <v>3.09545748801008</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.792365933281712</v>
+        <v>1.826860705615061</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.522644548747485</v>
+        <v>1.525526137611495</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.760678142407688</v>
+        <v>1.831238353393478</v>
       </c>
     </row>
     <row r="49">
@@ -2123,7 +2123,7 @@
         <v>1.122980325728489</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>1.332165010155839</v>
+        <v>1.33216501015584</v>
       </c>
     </row>
     <row r="50">
@@ -2134,31 +2134,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2997451355020171</v>
+        <v>0.3686067876086965</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1097467138811251</v>
+        <v>0.05785380498519528</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.02778485708263647</v>
+        <v>-0.01191325768820395</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4858974622956539</v>
+        <v>-0.473545214820834</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2242765008084023</v>
+        <v>-0.1574036507996301</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.86384595101851</v>
+        <v>0.8148553214317126</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4832719035198332</v>
+        <v>0.4206763885905915</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2386375395015349</v>
+        <v>0.236791408777998</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.4274991669444149</v>
+        <v>0.4115223351598303</v>
       </c>
     </row>
     <row r="51">
@@ -2169,29 +2169,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.924954832389211</v>
+        <v>3.201627922187524</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.363952291966478</v>
+        <v>2.316777117385786</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.062035994183346</v>
-      </c>
-      <c r="F51" s="6" t="inlineStr"/>
+        <v>1.975584385676098</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>11.04217007475562</v>
+      </c>
       <c r="G51" s="6" t="n">
-        <v>16.69363738029224</v>
+        <v>14.11767551815468</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>23.97316981436511</v>
+        <v>25.51215864053085</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>3.163358538672834</v>
+        <v>3.002615024258994</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>2.633391339893124</v>
+        <v>2.486522078841271</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.86362361582983</v>
+        <v>2.916067352069692</v>
       </c>
     </row>
     <row r="52">
